--- a/data/audit/is/is_core.xlsx
+++ b/data/audit/is/is_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>21-112</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>21-120</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>21-127</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>21-240</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>80-210</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>15-110</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>15-112</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>15-121</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>15-122</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>67-100</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>67-250</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>67-262</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>67-272</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>05-391</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>05-410</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>05-452</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>05-897</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>17-313</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>67-373</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +746,9 @@
           <t>67-382</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +761,9 @@
           <t>95-422</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +776,9 @@
           <t>36-315</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
           <t>51-261</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +806,9 @@
           <t>51-262</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
           <t>67-202</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +836,9 @@
           <t>67-265</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +851,9 @@
           <t>67-338</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +866,9 @@
           <t>70-321</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +881,9 @@
           <t>70-340</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +896,9 @@
           <t>70-341</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +911,9 @@
           <t>70-342</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +926,9 @@
           <t>76-270</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +941,9 @@
           <t>84-250</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +956,9 @@
           <t>85-341</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +971,9 @@
           <t>88-341</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +986,9 @@
           <t>88-418</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1001,9 @@
           <t>88-419</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1016,9 @@
           <t>21-257</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1031,9 @@
           <t>36-202</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1046,9 @@
           <t>36-208</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1061,9 @@
           <t>36-225</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1076,9 @@
           <t>36-303</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1091,9 @@
           <t>36-309</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1106,9 @@
           <t>36-315</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1121,9 @@
           <t>36-350</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1136,9 @@
           <t>36-401</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1151,9 @@
           <t>36-402</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1166,9 @@
           <t>67-357</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1181,9 @@
           <t>67-364</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1196,9 @@
           <t>70-208</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1211,9 @@
           <t>73-265</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1226,9 @@
           <t>80-305</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1241,9 @@
           <t>88-223</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1256,9 @@
           <t>88-251</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1271,9 @@
           <t>88-252</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1286,9 @@
           <t>05-470</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1301,9 @@
           <t>17-356</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1316,9 @@
           <t>67-443</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1331,9 @@
           <t>67-474</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1346,9 @@
           <t>11-685</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1361,9 @@
           <t>15-281</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1376,9 @@
           <t>15-288</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1391,9 @@
           <t>36-315</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1406,9 @@
           <t>67-364</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1421,9 @@
           <t>11-411</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +1436,9 @@
           <t>15-282</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1248,6 +1451,9 @@
           <t>67-212</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1260,6 +1466,9 @@
           <t>67-379</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1272,6 +1481,9 @@
           <t>67-357</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1284,6 +1496,9 @@
           <t>67-410</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1296,6 +1511,9 @@
           <t>70-374</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1308,6 +1526,9 @@
           <t>70-469</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1320,6 +1541,9 @@
           <t>70-462</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1332,6 +1556,9 @@
           <t>73-265</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1344,6 +1571,9 @@
           <t>67-426</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1356,6 +1586,9 @@
           <t>67-318</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1368,6 +1601,9 @@
           <t>67-323</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1380,6 +1616,9 @@
           <t>67-352</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1392,6 +1631,9 @@
           <t>70-443</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1404,6 +1646,9 @@
           <t>67-220</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1416,6 +1661,9 @@
           <t>67-354</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1428,6 +1676,9 @@
           <t>70-318</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1440,6 +1691,9 @@
           <t>70-387</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1452,6 +1706,9 @@
           <t>70-342</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1464,6 +1721,9 @@
           <t>67-425</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1476,6 +1736,9 @@
           <t>15-316</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1488,6 +1751,9 @@
           <t>67-223</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1500,6 +1766,9 @@
           <t>67-380</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1512,6 +1781,9 @@
           <t>67-301</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1524,6 +1796,9 @@
           <t>67-367</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1536,6 +1811,9 @@
           <t>67-384</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1548,6 +1826,9 @@
           <t>67-404</t>
         </is>
       </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1560,6 +1841,9 @@
           <t>17-334</t>
         </is>
       </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1572,6 +1856,9 @@
           <t>67-313</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1583,6 +1870,9 @@
         <is>
           <t>67-415</t>
         </is>
+      </c>
+      <c r="C96" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/audit/is/is_core.xlsx
+++ b/data/audit/is/is_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---Principles of Computing</t>
+          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---Fundamentals of Programming and Computer Science</t>
+          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1872,6 +1872,21 @@
         </is>
       </c>
       <c r="C96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Summative Course</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>67-427</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>9</v>
       </c>
     </row>

--- a/data/audit/is/is_core.xlsx
+++ b/data/audit/is/is_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -582,93 +582,93 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
+          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67-100</t>
+          <t>15-121</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
+          <t>BS in Information Systems---Technical Core---Computer Science Requirement</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>67-250</t>
+          <t>15-122</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
+          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>67-262</t>
+          <t>67-100</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
+          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>67-272</t>
+          <t>67-250</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05-391</t>
+          <t>67-262</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05-410</t>
+          <t>67-272</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05-452</t>
+          <t>05-391</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05-897</t>
+          <t>05-410</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
+          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17-313</t>
+          <t>05-452</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,57 +723,57 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
+          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>67-373</t>
+          <t>05-897</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
+          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>67-382</t>
+          <t>17-313</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
+          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>95-422</t>
+          <t>67-373</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>67-382</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>51-261</t>
+          <t>95-422</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>51-262</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -818,7 +818,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>67-202</t>
+          <t>51-261</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>67-265</t>
+          <t>51-262</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>67-338</t>
+          <t>67-202</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -863,7 +863,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>70-321</t>
+          <t>67-265</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>70-340</t>
+          <t>67-338</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>70-341</t>
+          <t>70-321</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>70-342</t>
+          <t>70-340</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>70-341</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>84-250</t>
+          <t>70-342</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>85-341</t>
+          <t>76-270</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>88-341</t>
+          <t>84-250</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>88-418</t>
+          <t>85-341</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>88-419</t>
+          <t>88-341</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21-257</t>
+          <t>88-418</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>88-419</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36-208</t>
+          <t>21-257</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-202</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>36-303</t>
+          <t>36-208</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>36-225</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>36-303</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>36-350</t>
+          <t>36-309</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>36-401</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>36-402</t>
+          <t>36-350</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>67-357</t>
+          <t>36-401</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>67-364</t>
+          <t>36-402</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>67-357</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>73-265</t>
+          <t>67-364</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>80-305</t>
+          <t>70-208</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>88-223</t>
+          <t>73-265</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>88-251</t>
+          <t>80-305</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1268,41 +1268,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>88-252</t>
+          <t>88-223</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05-470</t>
+          <t>88-251</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17-356</t>
+          <t>88-252</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>67-443</t>
+          <t>05-470</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>67-474</t>
+          <t>17-356</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1338,27 +1338,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11-685</t>
+          <t>67-443</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15-281</t>
+          <t>67-474</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1368,42 +1368,42 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15-288</t>
+          <t>11-685</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>15-281</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>67-364</t>
+          <t>15-288</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1413,12 +1413,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11-411</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1428,12 +1428,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15-282</t>
+          <t>67-364</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1443,42 +1443,42 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>67-212</t>
+          <t>11-411</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>67-379</t>
+          <t>15-282</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>67-357</t>
+          <t>67-212</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1488,12 +1488,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>67-410</t>
+          <t>67-379</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1503,12 +1503,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>70-374</t>
+          <t>67-357</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1518,12 +1518,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>70-469</t>
+          <t>67-410</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1533,12 +1533,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>70-462</t>
+          <t>70-374</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1548,12 +1548,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Applications</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>73-265</t>
+          <t>70-469</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1563,12 +1563,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Summative Course</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>67-426</t>
+          <t>70-462</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1578,12 +1578,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>67-318</t>
+          <t>73-265</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1593,12 +1593,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
+          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Summative Course</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>67-323</t>
+          <t>67-426</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1608,12 +1608,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>67-352</t>
+          <t>67-318</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1623,12 +1623,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Enabling Methods, Techniques and Tools</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>70-443</t>
+          <t>67-323</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1638,12 +1638,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>67-220</t>
+          <t>67-352</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1653,12 +1653,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>67-354</t>
+          <t>70-443</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1668,12 +1668,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>70-318</t>
+          <t>67-220</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -1683,12 +1683,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>70-387</t>
+          <t>67-354</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -1698,12 +1698,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Orthogonal Topics</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>70-342</t>
+          <t>70-318</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1713,12 +1713,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Summative Course</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>67-425</t>
+          <t>70-387</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -1728,12 +1728,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>15-316</t>
+          <t>70-342</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1743,12 +1743,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Summative Course</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>67-223</t>
+          <t>67-425</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1758,12 +1758,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>67-380</t>
+          <t>15-316</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -1773,12 +1773,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>67-301</t>
+          <t>67-223</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -1788,12 +1788,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>67-367</t>
+          <t>67-380</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1803,12 +1803,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>67-384</t>
+          <t>67-301</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1818,12 +1818,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Technical Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>67-404</t>
+          <t>67-367</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1833,12 +1833,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Regulatory and Behavioral Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17-334</t>
+          <t>67-384</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1848,12 +1848,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Regulatory and Behavioral Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>67-313</t>
+          <t>67-404</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1863,12 +1863,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Regulatory and Behavioral Core</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>67-415</t>
+          <t>17-334</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1878,15 +1878,45 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Summative Course</t>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>67-313</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>67-415</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Summative Course</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>67-427</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C99" t="n">
         <v>9</v>
       </c>
     </row>
